--- a/public/template/Template Excel Data Customer.xlsx
+++ b/public/template/Template Excel Data Customer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RYAN\Projects\keelola\applications\ERP-Sejati\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\keelola\applications\ERP-Sejati\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E867AB6-8F72-4A52-A0F8-216F9B2DB898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107AE25-F621-40F2-8878-458CF7BD9B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5580" xr2:uid="{4895BE18-29AF-4345-A6DE-4E183BD7E675}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TIPE PENJUALAN</t>
   </si>
@@ -46,22 +46,52 @@
     <t>TOKO</t>
   </si>
   <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>CUSTOMER TYPE</t>
-  </si>
-  <si>
-    <t>NAME</t>
+    <t>NAMA SALES</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>WILAYAH</t>
+  </si>
+  <si>
+    <t>BATAS KREDIT</t>
+  </si>
+  <si>
+    <t>TERMIN PEMBAYARAN</t>
+  </si>
+  <si>
+    <t>SALDO AWAL</t>
+  </si>
+  <si>
+    <t>NAMA NPWP</t>
+  </si>
+  <si>
+    <t>NOMOR NPWP</t>
+  </si>
+  <si>
+    <t>ALAMAT NPWP</t>
+  </si>
+  <si>
+    <t>NOMOR NIK</t>
+  </si>
+  <si>
+    <t>NAMA CUSTOMER</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>KOTA</t>
+  </si>
+  <si>
+    <t>TELEPON</t>
+  </si>
+  <si>
+    <t>DESKRIPSI</t>
+  </si>
+  <si>
+    <t>GOLONGAN CUSTOMER</t>
   </si>
 </sst>
 </file>
@@ -151,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +200,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,41 +533,71 @@
     <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="16.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.77734375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -577,51 +640,46 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipe Penjualan" prompt="Harap pilih tipe penjualan" sqref="G2" xr:uid="{93647EDA-131D-46CD-A830-7F71D2414621}">
+      <formula1>"PANEL,NON PANEL, SALES, TOKO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -631,7 +689,7 @@
           <x14:formula1>
             <xm:f>Data!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Golongan Customer" prompt="Harap pilih golongan customer" xr:uid="{011B9075-4AD2-4270-B534-74FDE885EE01}">
           <x14:formula1>
